--- a/getsearchmin.xlsx
+++ b/getsearchmin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\OMVISWEG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OMVISWEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,7 +81,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -99,7 +99,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -111,6 +111,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Min</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -125,12 +147,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -163,9 +182,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -217,9 +259,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -271,9 +336,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -325,9 +413,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -372,13 +483,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="325480968"/>
-        <c:axId val="325481752"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="277489824"/>
+        <c:axId val="277490384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325480968"/>
+        <c:axId val="277489824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,7 +503,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -408,10 +519,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -421,7 +529,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325481752"/>
+        <c:crossAx val="277490384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -429,7 +537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325481752"/>
+        <c:axId val="277490384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -441,7 +549,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -469,10 +577,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -482,7 +587,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325480968"/>
+        <c:crossAx val="277489824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -512,10 +617,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -536,7 +638,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -604,33 +706,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -645,7 +741,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -653,7 +749,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -661,17 +757,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -680,9 +773,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -705,35 +797,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -742,33 +834,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -784,21 +875,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -832,64 +918,157 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -897,102 +1076,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1000,17 +1083,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1019,12 +1102,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1033,14 +1113,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1049,10 +1129,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1061,7 +1138,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1082,10 +1159,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1094,14 +1168,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1110,16 +1178,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1142,9 +1210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1182,7 +1250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1254,7 +1322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1406,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
